--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cd59b-Cd2.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,46 +543,46 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.9415775</v>
+        <v>0.5256365</v>
       </c>
       <c r="H2">
-        <v>1.883155</v>
+        <v>1.051273</v>
       </c>
       <c r="I2">
-        <v>0.1712249031745133</v>
+        <v>0.1194844250463275</v>
       </c>
       <c r="J2">
-        <v>0.1386886305451922</v>
+        <v>0.09485948200501984</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1079395</v>
+        <v>0.022386</v>
       </c>
       <c r="N2">
-        <v>0.215879</v>
+        <v>0.067158</v>
       </c>
       <c r="O2">
-        <v>0.08243590548110175</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="P2">
-        <v>0.05651009047991132</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="Q2">
-        <v>0.10163340456125</v>
+        <v>0.011766898689</v>
       </c>
       <c r="R2">
-        <v>0.406533618245</v>
+        <v>0.07060139213399999</v>
       </c>
       <c r="S2">
-        <v>0.01411507993410498</v>
+        <v>0.003648376902546965</v>
       </c>
       <c r="T2">
-        <v>0.007837307060643804</v>
+        <v>0.002896470757594537</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,46 +605,46 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.9415775</v>
+        <v>0.5256365</v>
       </c>
       <c r="H3">
-        <v>1.883155</v>
+        <v>1.051273</v>
       </c>
       <c r="I3">
-        <v>0.1712249031745133</v>
+        <v>0.1194844250463275</v>
       </c>
       <c r="J3">
-        <v>0.1386886305451922</v>
+        <v>0.09485948200501984</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.022386</v>
+        <v>0.4643576666666667</v>
       </c>
       <c r="N3">
-        <v>0.06715800000000001</v>
+        <v>1.393073</v>
       </c>
       <c r="O3">
-        <v>0.01709670862010611</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="P3">
-        <v>0.01757977689562155</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="Q3">
-        <v>0.021078153915</v>
+        <v>0.2440833386548333</v>
       </c>
       <c r="R3">
-        <v>0.12646892349</v>
+        <v>1.464500031929</v>
       </c>
       <c r="S3">
-        <v>0.002927382278080537</v>
+        <v>0.07567907556451665</v>
       </c>
       <c r="T3">
-        <v>0.002438115182943763</v>
+        <v>0.06008212286986651</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.9415775</v>
+        <v>0.5256365</v>
       </c>
       <c r="H4">
-        <v>1.883155</v>
+        <v>1.051273</v>
       </c>
       <c r="I4">
-        <v>0.1712249031745133</v>
+        <v>0.1194844250463275</v>
       </c>
       <c r="J4">
-        <v>0.1386886305451922</v>
+        <v>0.09485948200501984</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5495453333333332</v>
+        <v>0.06229333333333333</v>
       </c>
       <c r="N4">
-        <v>1.648636</v>
+        <v>0.18688</v>
       </c>
       <c r="O4">
-        <v>0.4197005466603719</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="P4">
-        <v>0.4315592045934948</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="Q4">
-        <v>0.5174395210966666</v>
+        <v>0.03274364970666666</v>
       </c>
       <c r="R4">
-        <v>3.104637126579999</v>
+        <v>0.19646189824</v>
       </c>
       <c r="S4">
-        <v>0.07186318546421248</v>
+        <v>0.01015230762601592</v>
       </c>
       <c r="T4">
-        <v>0.05985235508424422</v>
+        <v>0.008059984740154071</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.9415775</v>
+        <v>0.5256365</v>
       </c>
       <c r="H5">
-        <v>1.883155</v>
+        <v>1.051273</v>
       </c>
       <c r="I5">
-        <v>0.1712249031745133</v>
+        <v>0.1194844250463275</v>
       </c>
       <c r="J5">
-        <v>0.1386886305451922</v>
+        <v>0.09485948200501984</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.629504</v>
+        <v>0.184105</v>
       </c>
       <c r="N5">
-        <v>1.888512</v>
+        <v>0.552315</v>
       </c>
       <c r="O5">
-        <v>0.4807668392384203</v>
+        <v>0.2511177916420012</v>
       </c>
       <c r="P5">
-        <v>0.4943509280309724</v>
+        <v>0.2511177916420012</v>
       </c>
       <c r="Q5">
-        <v>0.5927268025599999</v>
+        <v>0.09677230783249999</v>
       </c>
       <c r="R5">
-        <v>3.55636081536</v>
+        <v>0.580633846995</v>
       </c>
       <c r="S5">
-        <v>0.08231925549811532</v>
+        <v>0.03000466495324797</v>
       </c>
       <c r="T5">
-        <v>0.06856085321736043</v>
+        <v>0.02382090363740473</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>2.957541</v>
       </c>
       <c r="I6">
-        <v>0.1792752663693477</v>
+        <v>0.2240966180595275</v>
       </c>
       <c r="J6">
-        <v>0.2178138873705342</v>
+        <v>0.2668676997017981</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1079395</v>
+        <v>0.022386</v>
       </c>
       <c r="N6">
-        <v>0.215879</v>
+        <v>0.067158</v>
       </c>
       <c r="O6">
-        <v>0.08243590548110175</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="P6">
-        <v>0.05651009047991132</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="Q6">
-        <v>0.1064118322565</v>
+        <v>0.022069170942</v>
       </c>
       <c r="R6">
-        <v>0.6384709935389999</v>
+        <v>0.198622538478</v>
       </c>
       <c r="S6">
-        <v>0.01477871891352288</v>
+        <v>0.006842640159587888</v>
       </c>
       <c r="T6">
-        <v>0.0123086824830901</v>
+        <v>0.008148626494627852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>2.957541</v>
       </c>
       <c r="I7">
-        <v>0.1792752663693477</v>
+        <v>0.2240966180595275</v>
       </c>
       <c r="J7">
-        <v>0.2178138873705342</v>
+        <v>0.2668676997017981</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.022386</v>
+        <v>0.4643576666666667</v>
       </c>
       <c r="N7">
-        <v>0.06715800000000001</v>
+        <v>1.393073</v>
       </c>
       <c r="O7">
-        <v>0.01709670862010611</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="P7">
-        <v>0.01757977689562155</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="Q7">
-        <v>0.022069170942</v>
+        <v>0.4577856126103333</v>
       </c>
       <c r="R7">
-        <v>0.198622538478</v>
+        <v>4.120070513493</v>
       </c>
       <c r="S7">
-        <v>0.003065016991908646</v>
+        <v>0.1419383730164326</v>
       </c>
       <c r="T7">
-        <v>0.003829119544742032</v>
+        <v>0.1690287315993732</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>2.957541</v>
       </c>
       <c r="I8">
-        <v>0.1792752663693477</v>
+        <v>0.2240966180595275</v>
       </c>
       <c r="J8">
-        <v>0.2178138873705342</v>
+        <v>0.2668676997017981</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.5495453333333332</v>
+        <v>0.06229333333333333</v>
       </c>
       <c r="N8">
-        <v>1.648636</v>
+        <v>0.18688</v>
       </c>
       <c r="O8">
-        <v>0.4197005466603719</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="P8">
-        <v>0.4315592045934948</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="Q8">
-        <v>0.5417676182306665</v>
+        <v>0.06141169578666666</v>
       </c>
       <c r="R8">
-        <v>4.875908564075999</v>
+        <v>0.5527052620799999</v>
       </c>
       <c r="S8">
-        <v>0.075241927297899</v>
+        <v>0.01904095704195754</v>
       </c>
       <c r="T8">
-        <v>0.09399958798304481</v>
+        <v>0.02267511419810079</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>2.957541</v>
       </c>
       <c r="I9">
-        <v>0.1792752663693477</v>
+        <v>0.2240966180595275</v>
       </c>
       <c r="J9">
-        <v>0.2178138873705342</v>
+        <v>0.2668676997017981</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.629504</v>
+        <v>0.184105</v>
       </c>
       <c r="N9">
-        <v>1.888512</v>
+        <v>0.552315</v>
       </c>
       <c r="O9">
-        <v>0.4807668392384203</v>
+        <v>0.2511177916420012</v>
       </c>
       <c r="P9">
-        <v>0.4943509280309724</v>
+        <v>0.2511177916420012</v>
       </c>
       <c r="Q9">
-        <v>0.620594629888</v>
+        <v>0.181499361935</v>
       </c>
       <c r="R9">
-        <v>5.585351668992</v>
+        <v>1.633494257415</v>
       </c>
       <c r="S9">
-        <v>0.08618960316601715</v>
+        <v>0.05627464784154954</v>
       </c>
       <c r="T9">
-        <v>0.1076764973596573</v>
+        <v>0.06701522740969626</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2402846666666667</v>
+        <v>0.04015366666666666</v>
       </c>
       <c r="H10">
-        <v>0.720854</v>
+        <v>0.120461</v>
       </c>
       <c r="I10">
-        <v>0.04369552032022878</v>
+        <v>0.009127482157667042</v>
       </c>
       <c r="J10">
-        <v>0.05308870171760901</v>
+        <v>0.01086955344787386</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1079395</v>
+        <v>0.022386</v>
       </c>
       <c r="N10">
-        <v>0.215879</v>
+        <v>0.067158</v>
       </c>
       <c r="O10">
-        <v>0.08243590548110175</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="P10">
-        <v>0.05651009047991132</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="Q10">
-        <v>0.02593620677766667</v>
+        <v>0.000898879982</v>
       </c>
       <c r="R10">
-        <v>0.155617240666</v>
+        <v>0.008089919838</v>
       </c>
       <c r="S10">
-        <v>0.00360207978306594</v>
+        <v>0.000278701555198767</v>
       </c>
       <c r="T10">
-        <v>0.003000047337523108</v>
+        <v>0.0003318945354162007</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,55 +1092,55 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2402846666666667</v>
+        <v>0.04015366666666666</v>
       </c>
       <c r="H11">
-        <v>0.720854</v>
+        <v>0.120461</v>
       </c>
       <c r="I11">
-        <v>0.04369552032022878</v>
+        <v>0.009127482157667042</v>
       </c>
       <c r="J11">
-        <v>0.05308870171760901</v>
+        <v>0.01086955344787386</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.022386</v>
+        <v>0.4643576666666667</v>
       </c>
       <c r="N11">
-        <v>0.06715800000000001</v>
+        <v>1.393073</v>
       </c>
       <c r="O11">
-        <v>0.01709670862010611</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="P11">
-        <v>0.01757977689562155</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="Q11">
-        <v>0.005379012548000001</v>
+        <v>0.01864566296144444</v>
       </c>
       <c r="R11">
-        <v>0.048411112932</v>
+        <v>0.167810966653</v>
       </c>
       <c r="S11">
-        <v>0.0007470495789188772</v>
+        <v>0.005781166973486583</v>
       </c>
       <c r="T11">
-        <v>0.000933287531873767</v>
+        <v>0.006884560530924878</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,55 +1154,55 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2402846666666667</v>
+        <v>0.04015366666666666</v>
       </c>
       <c r="H12">
-        <v>0.720854</v>
+        <v>0.120461</v>
       </c>
       <c r="I12">
-        <v>0.04369552032022878</v>
+        <v>0.009127482157667042</v>
       </c>
       <c r="J12">
-        <v>0.05308870171760901</v>
+        <v>0.01086955344787386</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.5495453333333332</v>
+        <v>0.06229333333333333</v>
       </c>
       <c r="N12">
-        <v>1.648636</v>
+        <v>0.18688</v>
       </c>
       <c r="O12">
-        <v>0.4197005466603719</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="P12">
-        <v>0.4315592045934948</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="Q12">
-        <v>0.1320473172382222</v>
+        <v>0.002501305742222222</v>
       </c>
       <c r="R12">
-        <v>1.188425855144</v>
+        <v>0.02251175168</v>
       </c>
       <c r="S12">
-        <v>0.0183390337650094</v>
+        <v>0.0007755404662965778</v>
       </c>
       <c r="T12">
-        <v>0.02291091788615265</v>
+        <v>0.0009235601235679976</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04015366666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.120461</v>
+      </c>
+      <c r="I13">
+        <v>0.009127482157667042</v>
+      </c>
+      <c r="J13">
+        <v>0.01086955344787386</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.2402846666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.720854</v>
-      </c>
-      <c r="I13">
-        <v>0.04369552032022878</v>
-      </c>
-      <c r="J13">
-        <v>0.05308870171760901</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>0.629504</v>
+        <v>0.184105</v>
       </c>
       <c r="N13">
-        <v>1.888512</v>
+        <v>0.552315</v>
       </c>
       <c r="O13">
-        <v>0.4807668392384203</v>
+        <v>0.2511177916420012</v>
       </c>
       <c r="P13">
-        <v>0.4943509280309724</v>
+        <v>0.2511177916420012</v>
       </c>
       <c r="Q13">
-        <v>0.1512601588053333</v>
+        <v>0.007392490801666666</v>
       </c>
       <c r="R13">
-        <v>1.361341429248</v>
+        <v>0.066532417215</v>
       </c>
       <c r="S13">
-        <v>0.02100735719323456</v>
+        <v>0.002292073162685115</v>
       </c>
       <c r="T13">
-        <v>0.02624444896205949</v>
+        <v>0.002729538257964783</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.9773345</v>
+        <v>1.589555</v>
       </c>
       <c r="H14">
-        <v>3.954669</v>
+        <v>3.17911</v>
       </c>
       <c r="I14">
-        <v>0.3595762518816822</v>
+        <v>0.3613277716720872</v>
       </c>
       <c r="J14">
-        <v>0.2912493277874231</v>
+        <v>0.2868605279855743</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.1079395</v>
+        <v>0.022386</v>
       </c>
       <c r="N14">
-        <v>0.215879</v>
+        <v>0.067158</v>
       </c>
       <c r="O14">
-        <v>0.08243590548110175</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="P14">
-        <v>0.05651009047991132</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="Q14">
-        <v>0.21343249726275</v>
+        <v>0.03558377822999999</v>
       </c>
       <c r="R14">
-        <v>0.8537299890509998</v>
+        <v>0.21350266938</v>
       </c>
       <c r="S14">
-        <v>0.02964199391336719</v>
+        <v>0.01103290153428851</v>
       </c>
       <c r="T14">
-        <v>0.01645852586548063</v>
+        <v>0.008759094117490289</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.9773345</v>
+        <v>1.589555</v>
       </c>
       <c r="H15">
-        <v>3.954669</v>
+        <v>3.17911</v>
       </c>
       <c r="I15">
-        <v>0.3595762518816822</v>
+        <v>0.3613277716720872</v>
       </c>
       <c r="J15">
-        <v>0.2912493277874231</v>
+        <v>0.2868605279855743</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.022386</v>
+        <v>0.4643576666666667</v>
       </c>
       <c r="N15">
-        <v>0.06715800000000001</v>
+        <v>1.393073</v>
       </c>
       <c r="O15">
-        <v>0.01709670862010611</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="P15">
-        <v>0.01757977689562155</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="Q15">
-        <v>0.044264610117</v>
+        <v>0.7381220508383333</v>
       </c>
       <c r="R15">
-        <v>0.265587660702</v>
+        <v>4.42873230503</v>
       </c>
       <c r="S15">
-        <v>0.006147570405131004</v>
+        <v>0.2288578760397257</v>
       </c>
       <c r="T15">
-        <v>0.005120098203502648</v>
+        <v>0.1816917942692539</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.9773345</v>
+        <v>1.589555</v>
       </c>
       <c r="H16">
-        <v>3.954669</v>
+        <v>3.17911</v>
       </c>
       <c r="I16">
-        <v>0.3595762518816822</v>
+        <v>0.3613277716720872</v>
       </c>
       <c r="J16">
-        <v>0.2912493277874231</v>
+        <v>0.2868605279855743</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.5495453333333332</v>
+        <v>0.06229333333333333</v>
       </c>
       <c r="N16">
-        <v>1.648636</v>
+        <v>0.18688</v>
       </c>
       <c r="O16">
-        <v>0.4197005466603719</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="P16">
-        <v>0.4315592045934948</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="Q16">
-        <v>1.086634946914</v>
+        <v>0.09901867946666665</v>
       </c>
       <c r="R16">
-        <v>6.519809681483999</v>
+        <v>0.5941120767999999</v>
       </c>
       <c r="S16">
-        <v>0.1509143494808296</v>
+        <v>0.03070116201685334</v>
       </c>
       <c r="T16">
-        <v>0.1256913282383303</v>
+        <v>0.02437385730183426</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.9773345</v>
+        <v>1.589555</v>
       </c>
       <c r="H17">
-        <v>3.954669</v>
+        <v>3.17911</v>
       </c>
       <c r="I17">
-        <v>0.3595762518816822</v>
+        <v>0.3613277716720872</v>
       </c>
       <c r="J17">
-        <v>0.2912493277874231</v>
+        <v>0.2868605279855743</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.629504</v>
+        <v>0.184105</v>
       </c>
       <c r="N17">
-        <v>1.888512</v>
+        <v>0.552315</v>
       </c>
       <c r="O17">
-        <v>0.4807668392384203</v>
+        <v>0.2511177916420012</v>
       </c>
       <c r="P17">
-        <v>0.4943509280309724</v>
+        <v>0.2511177916420012</v>
       </c>
       <c r="Q17">
-        <v>1.244739977088</v>
+        <v>0.292645023275</v>
       </c>
       <c r="R17">
-        <v>7.468439862527999</v>
+        <v>1.75587013965</v>
       </c>
       <c r="S17">
-        <v>0.1728723380823545</v>
+        <v>0.09073583208121977</v>
       </c>
       <c r="T17">
-        <v>0.1439793754801095</v>
+        <v>0.07203578229699588</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.950695</v>
+        <v>0.718648</v>
       </c>
       <c r="H18">
-        <v>2.852085</v>
+        <v>2.155944</v>
       </c>
       <c r="I18">
-        <v>0.1728829112032668</v>
+        <v>0.1633586006502462</v>
       </c>
       <c r="J18">
-        <v>0.2100473741399325</v>
+        <v>0.194537223986377</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.1079395</v>
+        <v>0.022386</v>
       </c>
       <c r="N18">
-        <v>0.215879</v>
+        <v>0.067158</v>
       </c>
       <c r="O18">
-        <v>0.08243590548110175</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="P18">
-        <v>0.05651009047991132</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="Q18">
-        <v>0.1026175429525</v>
+        <v>0.016087654128</v>
       </c>
       <c r="R18">
-        <v>0.615705257715</v>
+        <v>0.144788887152</v>
       </c>
       <c r="S18">
-        <v>0.01425175932725021</v>
+        <v>0.004988045472986696</v>
       </c>
       <c r="T18">
-        <v>0.01186979611771537</v>
+        <v>0.005940063856877707</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.950695</v>
+        <v>0.718648</v>
       </c>
       <c r="H19">
-        <v>2.852085</v>
+        <v>2.155944</v>
       </c>
       <c r="I19">
-        <v>0.1728829112032668</v>
+        <v>0.1633586006502462</v>
       </c>
       <c r="J19">
-        <v>0.2100473741399325</v>
+        <v>0.194537223986377</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.022386</v>
+        <v>0.4643576666666667</v>
       </c>
       <c r="N19">
-        <v>0.06715800000000001</v>
+        <v>1.393073</v>
       </c>
       <c r="O19">
-        <v>0.01709670862010611</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="P19">
-        <v>0.01757977689562155</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="Q19">
-        <v>0.02128225827</v>
+        <v>0.3337097084346666</v>
       </c>
       <c r="R19">
-        <v>0.19154032443</v>
+        <v>3.003387375912</v>
       </c>
       <c r="S19">
-        <v>0.002955728758237931</v>
+        <v>0.103468112081807</v>
       </c>
       <c r="T19">
-        <v>0.00369258597489116</v>
+        <v>0.1232160364705947</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.950695</v>
+        <v>0.718648</v>
       </c>
       <c r="H20">
-        <v>2.852085</v>
+        <v>2.155944</v>
       </c>
       <c r="I20">
-        <v>0.1728829112032668</v>
+        <v>0.1633586006502462</v>
       </c>
       <c r="J20">
-        <v>0.2100473741399325</v>
+        <v>0.194537223986377</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.5495453333333332</v>
+        <v>0.06229333333333333</v>
       </c>
       <c r="N20">
-        <v>1.648636</v>
+        <v>0.18688</v>
       </c>
       <c r="O20">
-        <v>0.4197005466603719</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="P20">
-        <v>0.4315592045934948</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="Q20">
-        <v>0.5224500006733332</v>
+        <v>0.04476697941333333</v>
       </c>
       <c r="R20">
-        <v>4.702050006059999</v>
+        <v>0.4029028147199999</v>
       </c>
       <c r="S20">
-        <v>0.07255905234024761</v>
+        <v>0.01388019205443512</v>
       </c>
       <c r="T20">
-        <v>0.09064787771078148</v>
+        <v>0.01652936557928029</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.950695</v>
+        <v>0.718648</v>
       </c>
       <c r="H21">
-        <v>2.852085</v>
+        <v>2.155944</v>
       </c>
       <c r="I21">
-        <v>0.1728829112032668</v>
+        <v>0.1633586006502462</v>
       </c>
       <c r="J21">
-        <v>0.2100473741399325</v>
+        <v>0.194537223986377</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.629504</v>
+        <v>0.184105</v>
       </c>
       <c r="N21">
-        <v>1.888512</v>
+        <v>0.552315</v>
       </c>
       <c r="O21">
-        <v>0.4807668392384203</v>
+        <v>0.2511177916420012</v>
       </c>
       <c r="P21">
-        <v>0.4943509280309724</v>
+        <v>0.2511177916420012</v>
       </c>
       <c r="Q21">
-        <v>0.5984663052799999</v>
+        <v>0.13230669004</v>
       </c>
       <c r="R21">
-        <v>5.38619674752</v>
+        <v>1.19076021036</v>
       </c>
       <c r="S21">
-        <v>0.08311637077753106</v>
+        <v>0.04102225104101741</v>
       </c>
       <c r="T21">
-        <v>0.1038371143365445</v>
+        <v>0.04885175807962432</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1783,46 +1783,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.40333</v>
+        <v>0.539365</v>
       </c>
       <c r="H22">
-        <v>1.20999</v>
+        <v>1.618095</v>
       </c>
       <c r="I22">
-        <v>0.07334514705096123</v>
+        <v>0.1226051024141444</v>
       </c>
       <c r="J22">
-        <v>0.0891120784393091</v>
+        <v>0.1460055128733569</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1079395</v>
+        <v>0.022386</v>
       </c>
       <c r="N22">
-        <v>0.215879</v>
+        <v>0.067158</v>
       </c>
       <c r="O22">
-        <v>0.08243590548110175</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="P22">
-        <v>0.05651009047991132</v>
+        <v>0.03053433032072914</v>
       </c>
       <c r="Q22">
-        <v>0.04353523853499999</v>
+        <v>0.01207422489</v>
       </c>
       <c r="R22">
-        <v>0.26121143121</v>
+        <v>0.10866802401</v>
       </c>
       <c r="S22">
-        <v>0.006046273609790548</v>
+        <v>0.003743664696120311</v>
       </c>
       <c r="T22">
-        <v>0.005035731615458312</v>
+        <v>0.004458180558722551</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1845,46 +1845,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.40333</v>
+        <v>0.539365</v>
       </c>
       <c r="H23">
-        <v>1.20999</v>
+        <v>1.618095</v>
       </c>
       <c r="I23">
-        <v>0.07334514705096123</v>
+        <v>0.1226051024141444</v>
       </c>
       <c r="J23">
-        <v>0.0891120784393091</v>
+        <v>0.1460055128733569</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.022386</v>
+        <v>0.4643576666666667</v>
       </c>
       <c r="N23">
-        <v>0.06715800000000001</v>
+        <v>1.393073</v>
       </c>
       <c r="O23">
-        <v>0.01709670862010611</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="P23">
-        <v>0.01757977689562155</v>
+        <v>0.6333802546664449</v>
       </c>
       <c r="Q23">
-        <v>0.00902894538</v>
+        <v>0.2504582728816667</v>
       </c>
       <c r="R23">
-        <v>0.08126050842</v>
+        <v>2.254124455935</v>
       </c>
       <c r="S23">
-        <v>0.001253960607829119</v>
+        <v>0.07765565099047636</v>
       </c>
       <c r="T23">
-        <v>0.001566570457668182</v>
+        <v>0.09247700892643172</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1907,46 +1907,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.40333</v>
+        <v>0.539365</v>
       </c>
       <c r="H24">
-        <v>1.20999</v>
+        <v>1.618095</v>
       </c>
       <c r="I24">
-        <v>0.07334514705096123</v>
+        <v>0.1226051024141444</v>
       </c>
       <c r="J24">
-        <v>0.0891120784393091</v>
+        <v>0.1460055128733569</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.5495453333333332</v>
+        <v>0.06229333333333333</v>
       </c>
       <c r="N24">
-        <v>1.648636</v>
+        <v>0.18688</v>
       </c>
       <c r="O24">
-        <v>0.4197005466603719</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="P24">
-        <v>0.4315592045934948</v>
+        <v>0.08496762337082493</v>
       </c>
       <c r="Q24">
-        <v>0.2216481192933333</v>
+        <v>0.03359884373333333</v>
       </c>
       <c r="R24">
-        <v>1.99483307364</v>
+        <v>0.3023895936</v>
       </c>
       <c r="S24">
-        <v>0.03078299831217379</v>
+        <v>0.01041746416526644</v>
       </c>
       <c r="T24">
-        <v>0.03845713769094136</v>
+        <v>0.01240574142788752</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.40333</v>
+        <v>0.539365</v>
       </c>
       <c r="H25">
-        <v>1.20999</v>
+        <v>1.618095</v>
       </c>
       <c r="I25">
-        <v>0.07334514705096123</v>
+        <v>0.1226051024141444</v>
       </c>
       <c r="J25">
-        <v>0.0891120784393091</v>
+        <v>0.1460055128733569</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.629504</v>
+        <v>0.184105</v>
       </c>
       <c r="N25">
-        <v>1.888512</v>
+        <v>0.552315</v>
       </c>
       <c r="O25">
-        <v>0.4807668392384203</v>
+        <v>0.2511177916420012</v>
       </c>
       <c r="P25">
-        <v>0.4943509280309724</v>
+        <v>0.2511177916420012</v>
       </c>
       <c r="Q25">
-        <v>0.25389784832</v>
+        <v>0.099299793325</v>
       </c>
       <c r="R25">
-        <v>2.28508063488</v>
+        <v>0.8936981399249999</v>
       </c>
       <c r="S25">
-        <v>0.03526191452116778</v>
+        <v>0.03078832256228134</v>
       </c>
       <c r="T25">
-        <v>0.04405263867524126</v>
+        <v>0.03666458196031517</v>
       </c>
     </row>
   </sheetData>
